--- a/data/wjj/pj1/小琦/小琦_1.xlsx
+++ b/data/wjj/pj1/小琦/小琦_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwe\work\data\wwe\wjj\pj1\小琦\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwe\work\py\DataAnalysis\data\wjj\pj1\小琦\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3246B41C-3A70-4F59-B1FB-22BC68FA10A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA5C2B5-64A0-422A-8B64-1A2999A09AA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="8" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>借款期限</t>
   </si>
   <si>
-    <t>转入时间</t>
-  </si>
-  <si>
     <t>付款账号</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>截止20230817收到利息</t>
+  </si>
+  <si>
+    <t>转入日期</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -942,19 +942,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="29" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
@@ -962,10 +962,10 @@
         <v>44662</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="14">
         <v>10000</v>
@@ -988,10 +988,10 @@
         <v>44673</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="22">
         <v>5000</v>
@@ -1009,10 +1009,10 @@
         <v>44675</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="22">
         <v>3800</v>
@@ -1030,10 +1030,10 @@
         <v>44679</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="22">
         <v>5500</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="18">
         <v>10000</v>
@@ -1072,10 +1072,10 @@
         <v>44694</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="22">
         <v>4000</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="22">
         <v>1800</v>
@@ -1114,10 +1114,10 @@
         <v>44702</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="22">
         <v>2600</v>
@@ -1135,10 +1135,10 @@
         <v>44707</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="22">
         <v>4100</v>
@@ -1156,10 +1156,10 @@
         <v>44717</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="32">
         <v>11200</v>
@@ -1172,10 +1172,10 @@
         <v>44717</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="22">
         <v>10000</v>
@@ -1198,10 +1198,10 @@
         <v>44731</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="22">
         <v>14200</v>
@@ -1214,10 +1214,10 @@
         <v>44731</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="22">
         <v>10000</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A16" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="22">
         <v>3000</v>
@@ -1261,10 +1261,10 @@
         <v>44753</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="22">
         <v>2300</v>
@@ -1282,10 +1282,10 @@
         <v>44757</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="22">
         <v>7000</v>
@@ -1303,10 +1303,10 @@
         <v>44765</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="22">
         <v>5200</v>
@@ -1319,10 +1319,10 @@
         <v>44770</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="22">
         <v>5500</v>
@@ -1345,10 +1345,10 @@
         <v>44782</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="22">
         <v>800</v>
@@ -1366,10 +1366,10 @@
         <v>44785</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="22">
         <v>5800</v>
@@ -1382,10 +1382,10 @@
         <v>44789</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="22">
         <v>2000</v>
@@ -1408,10 +1408,10 @@
         <v>44793</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="22">
         <v>10600</v>
@@ -1424,10 +1424,10 @@
         <v>44798</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="22">
         <v>7900</v>
@@ -1450,10 +1450,10 @@
         <v>44804</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="22">
         <v>3000</v>
@@ -1471,10 +1471,10 @@
         <v>44814</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="22">
         <v>7700</v>
@@ -1492,10 +1492,10 @@
         <v>44818</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="22">
         <v>8600</v>
@@ -1508,10 +1508,10 @@
         <v>44820</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="22">
         <v>9300</v>
@@ -1534,10 +1534,10 @@
         <v>44834</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="22">
         <v>8300</v>
@@ -1555,10 +1555,10 @@
         <v>44837</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="22">
         <v>5800</v>
@@ -1571,10 +1571,10 @@
         <v>44842</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="22">
         <v>5000</v>
@@ -1597,10 +1597,10 @@
         <v>44842</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="22">
         <v>5000</v>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A34" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="22">
         <v>5700</v>
@@ -1631,13 +1631,13 @@
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A35" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="22">
         <v>4000</v>
@@ -1657,13 +1657,13 @@
       <c r="D36" s="22"/>
       <c r="E36" s="27"/>
       <c r="F36" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="32">
         <v>12800</v>
@@ -1676,10 +1676,10 @@
         <v>44866</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="22">
         <v>3700</v>
@@ -1699,13 +1699,13 @@
       <c r="D38" s="22"/>
       <c r="E38" s="27"/>
       <c r="F38" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="22">
         <v>5500</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A39" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="22">
         <v>2000</v>
@@ -1741,13 +1741,13 @@
       <c r="D40" s="22"/>
       <c r="E40" s="27"/>
       <c r="F40" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="22">
         <v>2000</v>
@@ -1762,13 +1762,13 @@
       <c r="D41" s="22"/>
       <c r="E41" s="27"/>
       <c r="F41" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="22">
         <v>6800</v>
@@ -1786,10 +1786,10 @@
         <v>45007</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="22">
         <v>8500</v>
@@ -1799,13 +1799,13 @@
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A43" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="22">
         <v>30000</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="22">
         <v>6000</v>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A45" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="22">
         <v>2000</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A46" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="22">
         <v>12000</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A47" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="22">
         <v>5000</v>
@@ -1909,13 +1909,13 @@
       <c r="D48" s="22"/>
       <c r="E48" s="27"/>
       <c r="F48" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="22">
         <v>5000</v>
@@ -1930,13 +1930,13 @@
       <c r="D49" s="22"/>
       <c r="E49" s="27"/>
       <c r="F49" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I49" s="22">
         <v>21500</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A50" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="22">
         <v>15000</v>
@@ -1970,10 +1970,10 @@
         <v>45039</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="22">
         <v>6600</v>
@@ -1993,13 +1993,13 @@
       <c r="D52" s="22"/>
       <c r="E52" s="27"/>
       <c r="F52" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I52" s="22">
         <v>7600</v>
@@ -2012,10 +2012,10 @@
         <v>45048</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="22">
         <v>8000</v>
@@ -2035,13 +2035,13 @@
       <c r="D54" s="22"/>
       <c r="E54" s="27"/>
       <c r="F54" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="22">
         <v>8800</v>
@@ -2056,13 +2056,13 @@
       <c r="D55" s="22"/>
       <c r="E55" s="27"/>
       <c r="F55" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I55" s="22">
         <v>22300</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A56" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="22">
         <v>30000</v>
@@ -2098,13 +2098,13 @@
       <c r="D57" s="22"/>
       <c r="E57" s="27"/>
       <c r="F57" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I57" s="22">
         <v>16500</v>
@@ -2114,13 +2114,13 @@
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A58" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="22">
         <v>10000</v>
@@ -2143,10 +2143,10 @@
         <v>45061</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I59" s="22">
         <v>11200</v>
@@ -2159,10 +2159,10 @@
         <v>45062</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="22">
         <v>5000</v>
@@ -2180,10 +2180,10 @@
         <v>45063</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="22">
         <v>5000</v>
@@ -2206,10 +2206,10 @@
         <v>45064</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I62" s="22">
         <v>5800</v>
@@ -2219,13 +2219,13 @@
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A63" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="22">
         <v>3000</v>
@@ -2245,13 +2245,13 @@
       <c r="D64" s="22"/>
       <c r="E64" s="27"/>
       <c r="F64" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I64" s="22">
         <v>3800</v>
@@ -2266,13 +2266,13 @@
       <c r="D65" s="22"/>
       <c r="E65" s="27"/>
       <c r="F65" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I65" s="22">
         <v>6000</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A66" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="22">
         <v>8000</v>
@@ -2308,13 +2308,13 @@
       <c r="D67" s="22"/>
       <c r="E67" s="27"/>
       <c r="F67" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I67" s="22">
         <v>9000</v>
@@ -2324,13 +2324,13 @@
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A68" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="22">
         <v>5000</v>
@@ -2350,13 +2350,13 @@
       <c r="D69" s="22"/>
       <c r="E69" s="27"/>
       <c r="F69" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I69" s="22">
         <v>1000</v>
@@ -2371,13 +2371,13 @@
       <c r="D70" s="22"/>
       <c r="E70" s="27"/>
       <c r="F70" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I70" s="22">
         <v>1000</v>
@@ -2392,13 +2392,13 @@
       <c r="D71" s="22"/>
       <c r="E71" s="27"/>
       <c r="F71" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I71" s="22">
         <v>4000</v>
@@ -2408,13 +2408,13 @@
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A72" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="22">
         <v>25000</v>
@@ -2434,13 +2434,13 @@
       <c r="D73" s="22"/>
       <c r="E73" s="27"/>
       <c r="F73" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" s="22">
         <v>32000</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A74" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="22">
         <v>26000</v>
@@ -2476,13 +2476,13 @@
       <c r="D75" s="22"/>
       <c r="E75" s="27"/>
       <c r="F75" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I75" s="22">
         <v>28200</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A76" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" s="22">
         <v>6000</v>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A77" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="22">
         <v>19500</v>
@@ -2534,13 +2534,13 @@
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A78" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="C78" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="D78" s="22">
         <v>4500</v>
@@ -2560,13 +2560,13 @@
       <c r="D79" s="22"/>
       <c r="E79" s="27"/>
       <c r="F79" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I79" s="22">
         <v>41200</v>
@@ -2579,10 +2579,10 @@
         <v>45134</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="22">
         <v>32000</v>
@@ -2602,13 +2602,13 @@
       <c r="D81" s="22"/>
       <c r="E81" s="27"/>
       <c r="F81" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I81" s="22">
         <v>32000</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A82" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="22">
         <v>15000</v>
@@ -2639,13 +2639,13 @@
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A83" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" s="22">
         <v>6000</v>
@@ -2665,13 +2665,13 @@
       <c r="D84" s="22"/>
       <c r="E84" s="27"/>
       <c r="F84" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I84" s="22">
         <v>6900</v>
@@ -2681,13 +2681,13 @@
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A85" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="22">
         <v>6000</v>
@@ -2707,13 +2707,13 @@
       <c r="D86" s="22"/>
       <c r="E86" s="27"/>
       <c r="F86" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I86" s="22">
         <v>6000</v>
@@ -2723,13 +2723,13 @@
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A87" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="22">
         <v>6000</v>
@@ -2749,13 +2749,13 @@
       <c r="D88" s="22"/>
       <c r="E88" s="27"/>
       <c r="F88" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I88" s="22">
         <v>6600</v>
@@ -2765,13 +2765,13 @@
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A89" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="22">
         <v>4700</v>
@@ -2791,13 +2791,13 @@
       <c r="D90" s="22"/>
       <c r="E90" s="27"/>
       <c r="F90" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I90" s="22">
         <v>5500</v>
@@ -2807,13 +2807,13 @@
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A91" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" s="22">
         <v>6000</v>
@@ -2833,13 +2833,13 @@
       <c r="D92" s="22"/>
       <c r="E92" s="27"/>
       <c r="F92" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I92" s="22">
         <v>55000</v>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A93" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" s="22">
         <v>45000</v>
@@ -2875,13 +2875,13 @@
       <c r="D94" s="22"/>
       <c r="E94" s="27"/>
       <c r="F94" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I94" s="22">
         <v>4000</v>
@@ -2894,10 +2894,10 @@
         <v>45156</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" s="22">
         <v>8500</v>
@@ -2917,13 +2917,13 @@
       <c r="D96" s="22"/>
       <c r="E96" s="27"/>
       <c r="F96" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I96" s="22">
         <v>9500</v>
@@ -2933,13 +2933,13 @@
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A97" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="22">
         <v>8000</v>
@@ -2954,13 +2954,13 @@
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A98" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="22">
         <v>13000</v>
@@ -2983,10 +2983,10 @@
         <v>45162</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I99" s="22">
         <v>22800</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A100" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="22">
         <v>5500</v>
@@ -3017,13 +3017,13 @@
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A101" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="22">
         <v>4500</v>
@@ -3043,13 +3043,13 @@
       <c r="D102" s="22"/>
       <c r="E102" s="27"/>
       <c r="F102" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I102" s="22">
         <v>12000</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A103" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="22">
         <v>10000</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A104" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" s="22">
         <v>8000</v>
@@ -3106,13 +3106,13 @@
       <c r="D105" s="22"/>
       <c r="E105" s="27"/>
       <c r="F105" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I105" s="22">
         <v>26800</v>
@@ -3125,10 +3125,10 @@
         <v>45181</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" s="22">
         <v>10000</v>
@@ -3146,10 +3146,10 @@
         <v>45181</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" s="22">
         <v>3000</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A108" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" s="22">
         <v>18000</v>
@@ -3190,13 +3190,13 @@
       <c r="D109" s="22"/>
       <c r="E109" s="27"/>
       <c r="F109" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I109" s="22">
         <v>6500</v>
@@ -3211,13 +3211,13 @@
       <c r="D110" s="22"/>
       <c r="E110" s="27"/>
       <c r="F110" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I110" s="22">
         <v>24500</v>
@@ -3227,13 +3227,13 @@
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A111" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D111" s="22">
         <v>7000</v>
@@ -3248,13 +3248,13 @@
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A112" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" s="22">
         <v>18000</v>
@@ -3269,13 +3269,13 @@
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A113" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113" s="22">
         <v>5000</v>
@@ -3295,13 +3295,13 @@
       <c r="D114" s="22"/>
       <c r="E114" s="27"/>
       <c r="F114" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I114" s="22">
         <v>8000</v>
@@ -3311,13 +3311,13 @@
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A115" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" s="22">
         <v>5000</v>
@@ -3337,13 +3337,13 @@
       <c r="D116" s="22"/>
       <c r="E116" s="27"/>
       <c r="F116" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I116" s="22">
         <v>5500</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A117" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" s="22">
         <v>3000</v>
@@ -3379,13 +3379,13 @@
       <c r="D118" s="22"/>
       <c r="E118" s="27"/>
       <c r="F118" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I118" s="22">
         <v>19500</v>
@@ -3400,13 +3400,13 @@
       <c r="D119" s="22"/>
       <c r="E119" s="27"/>
       <c r="F119" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I119" s="22">
         <v>4000</v>
@@ -3416,13 +3416,13 @@
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A120" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D120" s="22">
         <v>32000</v>
@@ -3437,13 +3437,13 @@
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A121" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D121" s="22">
         <v>7000</v>
@@ -3458,13 +3458,13 @@
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A122" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" s="22">
         <v>3000</v>
@@ -3484,13 +3484,13 @@
       <c r="D123" s="22"/>
       <c r="E123" s="27"/>
       <c r="F123" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I123" s="22">
         <v>11000</v>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A124" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D124" s="22">
         <v>10000</v>
@@ -3521,13 +3521,13 @@
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A125" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="22">
         <v>5000</v>
@@ -3547,13 +3547,13 @@
       <c r="D126" s="22"/>
       <c r="E126" s="27"/>
       <c r="F126" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I126" s="22">
         <v>25000</v>
@@ -3563,13 +3563,13 @@
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A127" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D127" s="22">
         <v>24000</v>
@@ -3589,13 +3589,13 @@
       <c r="D128" s="22"/>
       <c r="E128" s="27"/>
       <c r="F128" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I128" s="22">
         <v>8000</v>
@@ -3610,13 +3610,13 @@
       <c r="D129" s="22"/>
       <c r="E129" s="27"/>
       <c r="F129" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I129" s="22">
         <v>10000</v>
@@ -3631,13 +3631,13 @@
       <c r="D130" s="22"/>
       <c r="E130" s="27"/>
       <c r="F130" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I130" s="22">
         <v>8000</v>
@@ -3647,13 +3647,13 @@
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A131" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D131" s="22">
         <v>8000</v>
@@ -3673,13 +3673,13 @@
       <c r="D132" s="22"/>
       <c r="E132" s="27"/>
       <c r="F132" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I132" s="22">
         <v>800</v>
@@ -3694,13 +3694,13 @@
       <c r="D133" s="22"/>
       <c r="E133" s="27"/>
       <c r="F133" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I133" s="22">
         <v>600</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A134" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D134" s="22">
         <v>2000</v>
@@ -3736,13 +3736,13 @@
       <c r="D135" s="22"/>
       <c r="E135" s="27"/>
       <c r="F135" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I135" s="22">
         <v>1000</v>
@@ -3757,13 +3757,13 @@
       <c r="D136" s="22"/>
       <c r="E136" s="27"/>
       <c r="F136" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I136" s="22">
         <v>10000</v>
@@ -3773,13 +3773,13 @@
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A137" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D137" s="22">
         <v>10000</v>
@@ -3794,13 +3794,13 @@
     </row>
     <row r="138" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A138" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138" s="22">
         <v>2000</v>
@@ -3820,13 +3820,13 @@
       <c r="D139" s="22"/>
       <c r="E139" s="27"/>
       <c r="F139" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I139" s="22">
         <v>1500</v>
@@ -3841,13 +3841,13 @@
       <c r="D140" s="22"/>
       <c r="E140" s="27"/>
       <c r="F140" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I140" s="22">
         <v>13600</v>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="141" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A141" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" s="22">
         <v>4500</v>
@@ -3878,13 +3878,13 @@
     </row>
     <row r="142" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A142" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" s="22">
         <v>500</v>
@@ -3899,13 +3899,13 @@
     </row>
     <row r="143" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A143" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143" s="22">
         <v>2000</v>
@@ -3925,13 +3925,13 @@
       <c r="D144" s="22"/>
       <c r="E144" s="27"/>
       <c r="F144" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I144" s="22">
         <v>7800</v>
@@ -3941,13 +3941,13 @@
     </row>
     <row r="145" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A145" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D145" s="22">
         <v>3000</v>
@@ -3962,13 +3962,13 @@
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A146" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D146" s="22">
         <v>1000</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A147" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147" s="22">
         <v>2500</v>
@@ -4009,13 +4009,13 @@
       <c r="D148" s="22"/>
       <c r="E148" s="27"/>
       <c r="F148" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H148" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I148" s="22">
         <v>7500</v>
@@ -4025,13 +4025,13 @@
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A149" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B149" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B149" s="20" t="s">
+      <c r="C149" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="D149" s="22">
         <v>2000</v>
@@ -4046,13 +4046,13 @@
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A150" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B150" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="C150" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D150" s="22">
         <v>1000</v>
@@ -4072,13 +4072,13 @@
       <c r="D151" s="22"/>
       <c r="E151" s="27"/>
       <c r="F151" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I151" s="22">
         <v>1000</v>
@@ -4093,13 +4093,13 @@
       <c r="D152" s="22"/>
       <c r="E152" s="27"/>
       <c r="F152" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I152" s="22">
         <v>2000</v>
@@ -4109,13 +4109,13 @@
     </row>
     <row r="153" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A153" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D153" s="22">
         <v>4000</v>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="154" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A154" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D154" s="22">
         <v>8000</v>
@@ -4156,13 +4156,13 @@
       <c r="D155" s="22"/>
       <c r="E155" s="27"/>
       <c r="F155" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H155" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I155" s="22">
         <v>3000</v>
@@ -4177,13 +4177,13 @@
       <c r="D156" s="22"/>
       <c r="E156" s="27"/>
       <c r="F156" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I156" s="22">
         <v>9800</v>
@@ -4193,13 +4193,13 @@
     </row>
     <row r="157" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A157" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D157" s="22">
         <v>1000</v>
@@ -4214,13 +4214,13 @@
     </row>
     <row r="158" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A158" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D158" s="22">
         <v>6000</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="159" spans="1:11" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A159" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B159" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="D159" s="22">
         <v>2000</v>
@@ -4256,13 +4256,13 @@
     </row>
     <row r="160" spans="1:11" s="2" customFormat="1" ht="16">
       <c r="A160" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D160" s="22">
         <v>500</v>
@@ -4282,13 +4282,13 @@
       <c r="D161" s="22"/>
       <c r="E161" s="27"/>
       <c r="F161" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H161" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I161" s="22">
         <v>2000</v>
@@ -4303,13 +4303,13 @@
       <c r="D162" s="22"/>
       <c r="E162" s="27"/>
       <c r="F162" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I162" s="22">
         <v>1000</v>
@@ -4324,13 +4324,13 @@
       <c r="D163" s="22"/>
       <c r="E163" s="27"/>
       <c r="F163" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H163" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I163" s="22">
         <v>9000</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="164" spans="1:12" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A164" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="22">
@@ -4364,13 +4364,13 @@
       <c r="D165" s="22"/>
       <c r="E165" s="27"/>
       <c r="F165" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H165" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I165" s="22">
         <v>2166</v>
@@ -4385,13 +4385,13 @@
       <c r="D166" s="22"/>
       <c r="E166" s="27"/>
       <c r="F166" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H166" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I166" s="22">
         <v>3000</v>
@@ -4406,13 +4406,13 @@
       <c r="D167" s="22"/>
       <c r="E167" s="27"/>
       <c r="F167" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H167" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I167" s="22">
         <v>1200</v>
@@ -4422,13 +4422,13 @@
     </row>
     <row r="168" spans="1:12" s="2" customFormat="1" ht="16">
       <c r="A168" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D168" s="22">
         <v>1600</v>
@@ -4443,13 +4443,13 @@
     </row>
     <row r="169" spans="1:12" s="2" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A169" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B169" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="D169" s="22">
         <v>300</v>
@@ -4464,13 +4464,13 @@
     </row>
     <row r="170" spans="1:12" s="2" customFormat="1" ht="16">
       <c r="A170" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D170" s="22">
         <v>100</v>
@@ -4490,13 +4490,13 @@
       <c r="D171" s="22"/>
       <c r="E171" s="27"/>
       <c r="F171" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G171" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I171" s="22">
         <v>400</v>
@@ -4511,13 +4511,13 @@
       <c r="D172" s="22"/>
       <c r="E172" s="27"/>
       <c r="F172" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I172" s="22">
         <v>7000</v>
@@ -4532,13 +4532,13 @@
       <c r="D173" s="22"/>
       <c r="E173" s="27"/>
       <c r="F173" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I173" s="22">
         <v>2400</v>
@@ -4554,13 +4554,13 @@
       <c r="D174" s="22"/>
       <c r="E174" s="27"/>
       <c r="F174" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G174" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I174" s="22">
         <v>566</v>
@@ -4575,13 +4575,13 @@
       <c r="D175" s="22"/>
       <c r="E175" s="27"/>
       <c r="F175" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G175" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I175" s="22">
         <v>500</v>
@@ -4596,13 +4596,13 @@
       <c r="D176" s="22"/>
       <c r="E176" s="27"/>
       <c r="F176" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G176" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I176" s="22">
         <v>3500</v>
@@ -4617,13 +4617,13 @@
       <c r="D177" s="22"/>
       <c r="E177" s="27"/>
       <c r="F177" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G177" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I177" s="22">
         <v>2500</v>
@@ -4638,13 +4638,13 @@
       <c r="D178" s="22"/>
       <c r="E178" s="27"/>
       <c r="F178" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G178" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I178" s="22">
         <v>1700</v>
@@ -4659,13 +4659,13 @@
       <c r="D179" s="22"/>
       <c r="E179" s="27"/>
       <c r="F179" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I179" s="22">
         <v>1600</v>
@@ -4680,13 +4680,13 @@
       <c r="D180" s="22"/>
       <c r="E180" s="27"/>
       <c r="F180" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I180" s="22">
         <v>1000</v>
@@ -5219,7 +5219,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="D222" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E222" s="35">
         <f>D220-I220</f>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="H222" s="36"/>
       <c r="I222" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K222" s="1"/>
     </row>
